--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.4555675340108</v>
+        <v>9.967513245908274</v>
       </c>
       <c r="C2" t="n">
-        <v>52.21123496647435</v>
+        <v>32.88058369876183</v>
       </c>
       <c r="D2" t="n">
-        <v>63.64471016358689</v>
+        <v>42.40352611789112</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.68599285338961</v>
+        <v>13.73415860381966</v>
       </c>
       <c r="C3" t="n">
-        <v>70.16249045877001</v>
+        <v>46.15018506946988</v>
       </c>
       <c r="D3" t="n">
-        <v>87.37586854027532</v>
+        <v>58.61778674033965</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.50289841231987</v>
+        <v>10.18723276810912</v>
       </c>
       <c r="C4" t="n">
-        <v>52.30343896016132</v>
+        <v>33.6126902663045</v>
       </c>
       <c r="D4" t="n">
-        <v>63.73113303587612</v>
+        <v>43.10419711456861</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.1187709927145</v>
+        <v>10.18926174819467</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7860448900736</v>
+        <v>34.02290313132013</v>
       </c>
       <c r="D5" t="n">
-        <v>65.30391240018645</v>
+        <v>43.26613757019334</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.89490131886649</v>
+        <v>10.32992160291275</v>
       </c>
       <c r="C6" t="n">
-        <v>55.09958822514226</v>
+        <v>34.59464266098836</v>
       </c>
       <c r="D6" t="n">
-        <v>67.34682602043073</v>
+        <v>44.04326471715972</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.73149740928179</v>
+        <v>11.33303695511131</v>
       </c>
       <c r="C7" t="n">
-        <v>56.77625316828095</v>
+        <v>37.98421939134133</v>
       </c>
       <c r="D7" t="n">
-        <v>70.01763170540832</v>
+        <v>47.76163156413269</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.73192803312044</v>
+        <v>13.72881823605941</v>
       </c>
       <c r="C8" t="n">
-        <v>70.27314618801411</v>
+        <v>46.1130217086979</v>
       </c>
       <c r="D8" t="n">
-        <v>87.70099909360248</v>
+        <v>58.65887497683088</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.50564051699429</v>
+        <v>13.73114240223096</v>
       </c>
       <c r="C9" t="n">
-        <v>69.56443780838568</v>
+        <v>46.12719676359168</v>
       </c>
       <c r="D9" t="n">
-        <v>86.95650882982329</v>
+        <v>58.58535094804937</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.333799115307131</v>
+        <v>1.837909633932694</v>
       </c>
       <c r="C10" t="n">
-        <v>9.568314911645247</v>
+        <v>8.656553636361149</v>
       </c>
       <c r="D10" t="n">
-        <v>11.76359540177505</v>
+        <v>9.845267867180098</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.2595066804712</v>
+        <v>15.17717575126461</v>
       </c>
       <c r="C11" t="n">
-        <v>67.59322851137679</v>
+        <v>49.06307902889841</v>
       </c>
       <c r="D11" t="n">
-        <v>75.1280743834561</v>
+        <v>58.35545650697239</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.06269760081706</v>
+        <v>15.36071066618508</v>
       </c>
       <c r="C12" t="n">
-        <v>67.00766985615094</v>
+        <v>49.80631853594925</v>
       </c>
       <c r="D12" t="n">
-        <v>74.82141117475828</v>
+        <v>58.94425570831788</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.52335975787975</v>
+        <v>14.88533833884717</v>
       </c>
       <c r="C13" t="n">
-        <v>68.41788894974378</v>
+        <v>47.87863656988596</v>
       </c>
       <c r="D13" t="n">
-        <v>76.07685873966358</v>
+        <v>57.95989683608325</v>
       </c>
     </row>
   </sheetData>
